--- a/kadai5/day3/4619055_辰川力駆_5_3.xlsx
+++ b/kadai5/day3/4619055_辰川力駆_5_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C459DBF5-9D8D-2D48-9914-5A5D80DC19B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370ACC69-C685-CE47-9286-C60F77C0ABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2760" windowWidth="28300" windowHeight="17440" xr2:uid="{6CA23EE8-2D08-BB4E-804D-4FDAE192F11B}"/>
   </bookViews>
@@ -11993,8 +11993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F8761C-79F2-B64B-884C-D3013DCC4E08}">
   <dimension ref="A3:CG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F87" sqref="B77:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -33631,17 +33631,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kadai5/day3/4619055_辰川力駆_5_3.xlsx
+++ b/kadai5/day3/4619055_辰川力駆_5_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370ACC69-C685-CE47-9286-C60F77C0ABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E241DC24-AC71-F643-A211-458806AFC459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2760" windowWidth="28300" windowHeight="17440" xr2:uid="{6CA23EE8-2D08-BB4E-804D-4FDAE192F11B}"/>
   </bookViews>
@@ -11993,8 +11993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F8761C-79F2-B64B-884C-D3013DCC4E08}">
   <dimension ref="A3:CG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F87" sqref="B77:F87"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -22823,7 +22823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E74F8-F8B9-E949-91F6-8D6B0B3F1E77}">
   <dimension ref="A3:CG72"/>
   <sheetViews>
-    <sheetView topLeftCell="AI47" zoomScale="111" workbookViewId="0">
+    <sheetView topLeftCell="F46" zoomScale="111" workbookViewId="0">
       <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>

--- a/kadai5/day3/4619055_辰川力駆_5_3.xlsx
+++ b/kadai5/day3/4619055_辰川力駆_5_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai5/day3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E241DC24-AC71-F643-A211-458806AFC459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3403DBB-C725-0749-9CE4-FAAF248D9201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2760" windowWidth="28300" windowHeight="17440" xr2:uid="{6CA23EE8-2D08-BB4E-804D-4FDAE192F11B}"/>
   </bookViews>
@@ -11993,7 +11993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F8761C-79F2-B64B-884C-D3013DCC4E08}">
   <dimension ref="A3:CG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -22823,8 +22823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E74F8-F8B9-E949-91F6-8D6B0B3F1E77}">
   <dimension ref="A3:CG72"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" zoomScale="111" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView topLeftCell="A41" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
